--- a/HypocrisyStudy3_cleaned.xlsx
+++ b/HypocrisyStudy3_cleaned.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethhuppert/Desktop/preferences-for-moral-absolutism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4E8E3A-16BE-144A-829C-FFA40F50E928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC80708-E6F1-6D4E-B468-D439488596C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2780" windowWidth="27640" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="780" windowWidth="27640" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HypocrisyStudy4_cleaned" sheetId="1" r:id="rId1"/>
+    <sheet name="HypocrisyStudy3_cleaned" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HypocrisyStudy4_cleaned!$D$1:$D$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HypocrisyStudy3_cleaned!$D$1:$D$601</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
